--- a/src/main/resources/data_structure.xlsx
+++ b/src/main/resources/data_structure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\WorkPlace\Repositories\git\orgchart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\WorkPlace\Repositories\bosch-git\orgchart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,9 +439,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -734,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B11:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1032,44 +1029,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="2"/>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -1097,98 +1059,312 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f>A10+1</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
       <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" ref="A12:A20" si="0">A11+1</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="21" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
@@ -1198,13 +1374,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:K2 D4:I11 D3:G3 J3:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:K2 D4:I8 D10:K11 D3:G3 J3:K8 D12:I12 D14:I18 D20:I20 D13:G13">
       <formula1>$M$1:$M$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B10:B20">
       <formula1>$L$1:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8 C10:C18 C20">
       <formula1>$N$2:$N$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -1218,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1289,7 +1465,7 @@
       <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -1321,13 +1497,13 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1341,7 +1517,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1350,7 +1526,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1364,7 +1540,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1643,7 +1819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1662,101 +1838,101 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
     </row>

--- a/src/main/resources/data_structure.xlsx
+++ b/src/main/resources/data_structure.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Competence master data" sheetId="4" r:id="rId4"/>
     <sheet name="Possition" sheetId="5" r:id="rId5"/>
     <sheet name="Domain" sheetId="6" r:id="rId6"/>
+    <sheet name="Career Path" sheetId="7" r:id="rId7"/>
+    <sheet name="Connection" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +114,6 @@
   </si>
   <si>
     <t>P1, P2, P3,P4</t>
-  </si>
-  <si>
-    <t>&lt;refer competence master data&gt;
-&lt;each of competence is one line&gt;</t>
   </si>
   <si>
     <t>&lt;free text&gt;</t>
@@ -269,17 +267,122 @@
     <t>DQA</t>
   </si>
   <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Principal Consultant</t>
   </si>
   <si>
-    <t>IT</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Career path</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Domain Roles</t>
+  </si>
+  <si>
+    <t>Project Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competencies required </t>
+  </si>
+  <si>
+    <t>KRA (key responsible area)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope </t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Industrial Role</t>
+  </si>
+  <si>
+    <t>Entry Criteria</t>
+  </si>
+  <si>
+    <t>KRA1</t>
+  </si>
+  <si>
+    <t>KRA2</t>
+  </si>
+  <si>
+    <t>KRA3</t>
+  </si>
+  <si>
+    <t>KRA4</t>
+  </si>
+  <si>
+    <t>KRA5</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Career Path</t>
+  </si>
+  <si>
+    <t>#0E78C5</t>
+  </si>
+  <si>
+    <t>#1399A0</t>
+  </si>
+  <si>
+    <t>#67B419</t>
+  </si>
+  <si>
+    <t>#5b2287</t>
+  </si>
+  <si>
+    <t>#BFBFBF</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>LCP</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -311,6 +414,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -379,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -409,6 +518,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -925,6 +1037,41 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -939,149 +1086,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" ht="67" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5">
-      <formula1>$R$1:$R$11</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1091,23 +1306,26 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1115,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,27 +1403,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>39</v>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1436,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1228,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
@@ -1242,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
@@ -1256,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -1270,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
@@ -1284,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
@@ -1298,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
@@ -1312,10 +1530,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
@@ -1326,10 +1544,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12">
         <v>2</v>
@@ -1342,26 +1560,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1371,8 +1596,11 @@
       <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1380,10 +1608,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1391,10 +1622,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1402,10 +1636,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1413,10 +1650,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1424,10 +1664,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -1435,10 +1678,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -1446,10 +1692,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1457,10 +1706,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1468,10 +1720,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1479,10 +1734,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1490,10 +1748,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1501,10 +1762,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1512,10 +1776,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1523,10 +1790,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1534,10 +1804,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -1545,18 +1818,24 @@
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+        <v>64</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,15 +1871,199 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
